--- a/sources_of_images/RectangularAlternateNudge_table.xlsx
+++ b/sources_of_images/RectangularAlternateNudge_table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JDAW/Documents/GitHub/placemat/sources_of_images/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BCF07DE-5E86-9C48-B98A-B2277CB6A556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5934E04-B723-2947-B92C-408273DAE171}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="3860" windowWidth="38800" windowHeight="14220" xr2:uid="{6154EB04-D85E-EF48-BF83-3B5031096200}"/>
+    <workbookView xWindow="12400" yWindow="14200" windowWidth="38800" windowHeight="14220" xr2:uid="{6154EB04-D85E-EF48-BF83-3B5031096200}"/>
   </bookViews>
   <sheets>
     <sheet name="TableInMarkdown" sheetId="1" r:id="rId1"/>
@@ -84,8 +84,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#,##0.??????"/>
+    <numFmt numFmtId="165" formatCode="#,##0.???"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -125,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -134,6 +135,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,11 +453,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB86B911-026E-EF4E-8FA6-2FE3544CD29A}">
   <dimension ref="B2:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="5"/>
     <col min="5" max="5" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
@@ -465,7 +471,7 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -485,7 +491,7 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>117.465</v>
       </c>
       <c r="E3" s="3">
@@ -493,19 +499,18 @@
         <v>117.46473024559081</v>
       </c>
       <c r="F3" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" ref="F3:F10" si="0" xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" ref="G3:G10" si="1" xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
         <v>*Radius:*&lt;br&gt;117.46pt&lt;br&gt;1.631&amp;Prime;&lt;br&gt;41.44mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;234.93pt&lt;br&gt;3.263&amp;Prime;&lt;br&gt;82.88mm</v>
       </c>
       <c r="H3" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/Diamonds` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;117.46&lt;/td&gt;&lt;td&gt;234.93&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.631&lt;/td&gt;&lt;td&gt;3.263&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;41.44&lt;/td&gt;&lt;td&gt;82.88&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -516,7 +521,7 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>119.575</v>
       </c>
       <c r="E4" s="3">
@@ -524,19 +529,18 @@
         <v>119.57492118173359</v>
       </c>
       <c r="F4" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;119.57pt&lt;br&gt;1.661&amp;Prime;&lt;br&gt;42.18mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;239.15pt&lt;br&gt;3.322&amp;Prime;&lt;br&gt;84.37mm</v>
       </c>
       <c r="H4" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/Diamonds` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;119.57&lt;/td&gt;&lt;td&gt;239.15&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.661&lt;/td&gt;&lt;td&gt;3.322&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;42.18&lt;/td&gt;&lt;td&gt;84.37&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -547,26 +551,26 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>123</v>
       </c>
       <c r="E5" s="3">
+        <f xml:space="preserve"> (11*72 - 54) / 6</f>
         <v>123</v>
       </c>
       <c r="F5" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;123pt&lt;br&gt;1.708&amp;Prime;&lt;br&gt;43.39mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;246pt&lt;br&gt;3.417&amp;Prime;&lt;br&gt;86.78mm</v>
       </c>
       <c r="H5" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/SquareGrid` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;123&lt;/td&gt;&lt;td&gt;246&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.708&lt;/td&gt;&lt;td&gt;3.417&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;43.39&lt;/td&gt;&lt;td&gt;86.78&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -577,7 +581,7 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>131.315</v>
       </c>
       <c r="E6" s="3">
@@ -585,19 +589,18 @@
         <v>131.31496062992127</v>
       </c>
       <c r="F6" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;131.31pt&lt;br&gt;1.824&amp;Prime;&lt;br&gt;46.33mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;262.63pt&lt;br&gt;3.648&amp;Prime;&lt;br&gt;92.65mm</v>
       </c>
       <c r="H6" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/SquareGrid` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;131.31&lt;/td&gt;&lt;td&gt;262.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.824&lt;/td&gt;&lt;td&gt;3.648&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;46.33&lt;/td&gt;&lt;td&gt;92.65&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -608,26 +611,26 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>123</v>
       </c>
       <c r="E7" s="3">
+        <f xml:space="preserve"> (11*72 - 54) / 6</f>
         <v>123</v>
       </c>
       <c r="F7" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;123pt&lt;br&gt;1.708&amp;Prime;&lt;br&gt;43.39mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;246pt&lt;br&gt;3.417&amp;Prime;&lt;br&gt;86.78mm</v>
       </c>
       <c r="H7" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/RectangularDislocation` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;123&lt;/td&gt;&lt;td&gt;246&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.708&lt;/td&gt;&lt;td&gt;3.417&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;43.39&lt;/td&gt;&lt;td&gt;86.78&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -638,7 +641,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>131.315</v>
       </c>
       <c r="E8" s="3">
@@ -646,19 +649,18 @@
         <v>131.31496062992127</v>
       </c>
       <c r="F8" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;131.31pt&lt;br&gt;1.824&amp;Prime;&lt;br&gt;46.33mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;262.63pt&lt;br&gt;3.648&amp;Prime;&lt;br&gt;92.65mm</v>
       </c>
       <c r="H8" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/RectangularDislocation` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;131.31&lt;/td&gt;&lt;td&gt;262.63&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.824&lt;/td&gt;&lt;td&gt;3.648&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;46.33&lt;/td&gt;&lt;td&gt;92.65&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -669,7 +671,7 @@
       <c r="C9" t="s">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>125.568</v>
       </c>
       <c r="E9" s="3">
@@ -677,19 +679,18 @@
         <v>125.56809777805529</v>
       </c>
       <c r="F9" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G9" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;125.57pt&lt;br&gt;1.744&amp;Prime;&lt;br&gt;44.30mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;251.14pt&lt;br&gt;3.488&amp;Prime;&lt;br&gt;88.60mm</v>
       </c>
       <c r="H9" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/RectangularAlternateNudge` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;125.57&lt;/td&gt;&lt;td&gt;251.14&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.744&lt;/td&gt;&lt;td&gt;3.488&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;44.30&lt;/td&gt;&lt;td&gt;88.60&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
@@ -700,7 +701,7 @@
       <c r="C10" t="s">
         <v>5</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>131.59200000000001</v>
       </c>
       <c r="E10" s="3">
@@ -708,19 +709,18 @@
         <v>131.59219723880045</v>
       </c>
       <c r="F10" t="b">
-        <f xml:space="preserve"> ABS(_xlfn.SINGLE(RadiusPostScript) - _xlfn.SINGLE(RadiusSurd)) &lt; 0.001</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G10" t="str">
-        <f xml:space="preserve"> "*Radius:*&lt;br&gt;" &amp; IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),_xlfn.SINGLE(RadiusSurd),TEXT(_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;" &amp; IF(2*_xlfn.SINGLE(RadiusSurd)=INT(2*_xlfn.SINGLE(RadiusSurd)),2*_xlfn.SINGLE(RadiusSurd),TEXT(2*_xlfn.SINGLE(RadiusSurd),"0.00")) &amp; "pt&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&amp;Prime;&lt;br&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "mm"</f>
+        <f t="shared" si="1"/>
         <v>*Radius:*&lt;br&gt;131.59pt&lt;br&gt;1.828&amp;Prime;&lt;br&gt;46.42mm&lt;br&gt;&lt;br&gt;*Diameter:*&lt;br&gt;263.18pt&lt;br&gt;3.655&amp;Prime;&lt;br&gt;92.85mm</v>
       </c>
       <c r="H10" t="str">
         <f xml:space="preserve"> "`" &amp; _xlfn.SINGLE(Pattern) &amp; "` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd),IF(_xlfn.SINGLE(RadiusSurd)=INT(_xlfn.SINGLE(RadiusSurd)),"0","0.00")) &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;"
-&amp; "&lt;/table&gt;"</f>
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; ROUND(_xlfn.SINGLE(RadiusSurd),2)                       &amp; "&lt;/td&gt;&lt;td&gt;" &amp; ROUND(2*_xlfn.SINGLE(RadiusSurd),2)                        &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)/72,"0.000")          &amp; "&lt;/td&gt;&lt;/tr&gt;"
+&amp; "&lt;tr&gt;&lt;td&gt;" &amp; TEXT(_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;td&gt;" &amp; TEXT(2*_xlfn.SINGLE(RadiusSurd)*127/360,"0.00") &amp; "&lt;/td&gt;&lt;/tr&gt;" &amp; "&lt;/table&gt;"</f>
         <v>`/RectangularAlternateNudge` &lt;table&gt;&lt;tr&gt;&lt;th&gt;Rad.&lt;/th&gt;&lt;th&gt;Diam.&lt;/th&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;131.59&lt;/td&gt;&lt;td&gt;263.18&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;1.828&lt;/td&gt;&lt;td&gt;3.655&lt;/td&gt;&lt;/tr&gt;&lt;tr&gt;&lt;td&gt;46.42&lt;/td&gt;&lt;td&gt;92.85&lt;/td&gt;&lt;/tr&gt;&lt;/table&gt;</v>
       </c>
     </row>
